--- a/Medidata.Rave.Tsdv.Loader/Resources/CoverSheet.xlsx
+++ b/Medidata.Rave.Tsdv.Loader/Resources/CoverSheet.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
@@ -761,7 +761,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -772,7 +772,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -804,10 +804,6 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -815,100 +811,100 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="22" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="35" borderId="22" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="35" borderId="22" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="22" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="20" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="21" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="35" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="35" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -946,7 +942,6 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="42"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1009,7 +1004,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1044,7 +1039,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1221,7 +1216,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1235,17 +1230,17 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1254,21 +1249,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="27" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="6"/>
       <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="8"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="28" t="s">
         <v>2</v>
@@ -1277,7 +1272,7 @@
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="20.25" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="20" t="s">
         <v>3</v>
@@ -1286,7 +1281,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17.25" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="20" t="s">
         <v>4</v>
@@ -1295,7 +1290,7 @@
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="20" t="s">
         <v>5</v>
@@ -1304,7 +1299,7 @@
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="19.5" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="20" t="s">
         <v>6</v>
@@ -1313,7 +1308,7 @@
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
       <c r="A9" s="9"/>
       <c r="B9" s="24" t="s">
         <v>7</v>
@@ -1322,21 +1317,21 @@
       <c r="D9" s="26"/>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="13">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="13">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="18" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="11" t="s">
         <v>8</v>
@@ -1345,14 +1340,14 @@
       <c r="D12" s="12"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="13">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="14.25" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="13" t="s">
         <v>9</v>
@@ -1367,7 +1362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="13">
       <c r="A15" s="3"/>
       <c r="B15" s="14" t="s">
         <v>13</v>
@@ -1378,42 +1373,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="13">
       <c r="A16" s="3"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="13">
       <c r="A17" s="3"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="13">
       <c r="A18" s="3"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="13">
       <c r="A19" s="3"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="13">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="33" customHeight="1">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
         <v>15</v>
@@ -1422,7 +1417,7 @@
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="13">
       <c r="A22" s="4"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
@@ -1431,7 +1426,7 @@
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="38.25" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="19" t="s">
         <v>17</v>
@@ -1440,21 +1435,21 @@
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="13">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="13">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="13">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1481,5 +1476,10 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Medidata.Rave.Tsdv.Loader/Resources/CoverSheet.xlsx
+++ b/Medidata.Rave.Tsdv.Loader/Resources/CoverSheet.xlsx
@@ -9,12 +9,6 @@
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 

--- a/Medidata.Rave.Tsdv.Loader/Resources/CoverSheet.xlsx
+++ b/Medidata.Rave.Tsdv.Loader/Resources/CoverSheet.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
+    <sheet name="__Resources__" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
@@ -1210,7 +1211,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1224,17 +1225,17 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1243,21 +1244,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" customHeight="1">
+    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="6"/>
       <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="8"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="28" t="s">
         <v>2</v>
@@ -1266,7 +1267,7 @@
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1">
+    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="20" t="s">
         <v>3</v>
@@ -1275,7 +1276,7 @@
       <c r="D5" s="22"/>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1">
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="20" t="s">
         <v>4</v>
@@ -1284,7 +1285,7 @@
       <c r="D6" s="22"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="20" t="s">
         <v>5</v>
@@ -1293,7 +1294,7 @@
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1">
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="20" t="s">
         <v>6</v>
@@ -1302,7 +1303,7 @@
       <c r="D8" s="22"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="24" t="s">
         <v>7</v>
@@ -1311,21 +1312,21 @@
       <c r="D9" s="26"/>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:5" ht="13">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" ht="13">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="11" t="s">
         <v>8</v>
@@ -1334,14 +1335,14 @@
       <c r="D12" s="12"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1">
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="13" t="s">
         <v>9</v>
@@ -1356,7 +1357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="14" t="s">
         <v>13</v>
@@ -1367,42 +1368,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" ht="13">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" ht="13">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" ht="13">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" ht="13">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="33" customHeight="1">
+    <row r="21" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
         <v>15</v>
@@ -1411,7 +1412,7 @@
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="1:5" ht="13">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="19" t="s">
         <v>16</v>
@@ -1420,7 +1421,7 @@
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:5" ht="38.25" customHeight="1">
+    <row r="23" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="19" t="s">
         <v>17</v>
@@ -1429,21 +1430,21 @@
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5" ht="13">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="13">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="13">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1476,4 +1477,17 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>